--- a/excel/iPhone.xlsx
+++ b/excel/iPhone.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF030577-0E24-4399-810B-3F14B9DD18A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6EE5D-3B99-4910-84B8-3CDD96A2EC6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="2055" windowWidth="15375" windowHeight="7875" xr2:uid="{E5F0E324-D48A-4D2E-9968-6F629196FEE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="514">
   <si>
     <t>Общие Характеристики</t>
   </si>
@@ -949,6 +943,962 @@
   </si>
   <si>
     <t>https://ibb.co/sK5zcnJ</t>
+  </si>
+  <si>
+    <t>iPhone XR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018, Сентябрь
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.9 Х 75.7 Х 8.3 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Передняя и задняя панель из стекло, алюминиевая рама (7000 series)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black, Red, Yellow, Blue, Coral, White
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2942 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPS LCD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.0%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828 x 1792 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стекло устойчивое к царапинам, олеофобное покрытие
+</t>
+  </si>
+  <si>
+    <t>True-tone
+-Wide color gamut
+-120 Hz touch-sensing</t>
+  </si>
+  <si>
+    <t>13 MP, Двойная камера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, f/1.8, 26mm (широкая), 1/2.55'', 1.4µm, OIS, PDAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">четворная LED двутонная вспышка, HDR (photo/панорама)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2160p@24/30/60fps, 1080p@30/60/120/240fps, HDR, stereo sound rec.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080p@60fps
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 12, обновить до iOS 12.1.3
+</t>
+  </si>
+  <si>
+    <t>6 ядерный (2x2.5 GHz Vortex + 4x1.6 GHz Tempest)</t>
+  </si>
+  <si>
+    <t>Apple GPU (4-core graphics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414479
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346555
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano-SIM, Electronic SIM card (eSIM)
+</t>
+  </si>
+  <si>
+    <t>iPhone XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.6 Х 70.9 Х 7.7 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Передняя и задняя панель из стекло, рама из нержавеющей стали
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Gray, Silver, Gold
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2658 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1150 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super AMOLED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1125 x 2436 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458 PPI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, Двойная камера
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR
+</t>
+  </si>
+  <si>
+    <t>Apple A12 Bionic (7 nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 ядерный (2x2.5 GHz Vortex + 4x1.6 GHz Tempest)</t>
+  </si>
+  <si>
+    <t>64/256 GB, 4 GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414119
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356601
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1109
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2472
+</t>
+  </si>
+  <si>
+    <t>iPhone XS Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.5 Х 77.4 Х 7.7 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3174 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1250 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.9 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1242 x 2688 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431328
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354700
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2477
+</t>
+  </si>
+  <si>
+    <t>Одна SIM-карта (Nano-SIM)Две SIM-карты (Nano-SIM, двойной режим готовности) - for China</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019, Сентябрь
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black, Green, Yellow, Purple, Red, White
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 EUR
+</t>
+  </si>
+  <si>
+    <t>Liquid Retina
+-625 nits
+-Dolby Vision
+-HDR10
+-True-tone
+-Wide color gamut
+-120 Hz touch-sensing</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.8, 26mm (широкая), 1/2.55", 1.4µm, dual pixel PDAF, OIS
+ 12 MP, f/2.4, 13mm (сверхширокая)</t>
+  </si>
+  <si>
+    <t>12 MP, f/2.2, 23mm (широкоугольная)
+-TOF 3D camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2160p@24/30/60fps, 1080p@30/60/120fps, gyro-EIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 13, обновить до iOS 13.2
+</t>
+  </si>
+  <si>
+    <t>A13 Bionic (7 nm+)</t>
+  </si>
+  <si>
+    <t>6 ядерный (2x2.65 GHz Lightning + 4x1.8 GHz Thunder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64GB 4GB RAM, 128GB 4GB RAM, 256GB 4GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507467
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455658
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1328
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3298
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одна SIM-карта (Nano-SIM and/or Electronic SIM card) or Две SIM-карты (Nano-SIM, двойной режим готовности) - for China
+</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144 Х 71.4 Х 8.1 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Gray, Silver, Gold, Midnight Green (matte colors)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3046 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDR OLED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Super Retina
+800 nits
+Dolby Vision
+HDR10
+Wide color gamut
+True-tone
+120 Hz touch-sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, Тройная камера
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.8, 26mm (широкая), 1/2.55", 1.4µm, dual pixel PDAF, OIS
+-12 MP, f/2.0, 52mm (телеобъектив), 1/3.4", 1.0µm, PDAF, OIS, 2x оптический зум
+-12 MP, f/2.4, 13mm (сверхширокая)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525543
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456324
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1336
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano-SIM and/or Electronic SIM card
+</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158 Х 77.8 Х 8.1 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3969 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527458
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">457954
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1334
+</t>
+  </si>
+  <si>
+    <t>iPhone 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020, Октябрь 13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.7 Х 71.5 Х 7.4 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стеклянная передняя панель (Gorilla Glass), задняя стеклянная панель (Gorilla Glass), алюминиевая рама
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black, White, Red, Green, Blue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2815 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Retina XDR OLED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.2 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.0%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1170 x 2532 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460 PPI
+</t>
+  </si>
+  <si>
+    <t>Dolby Vision
+-Wide color gamut
+-True-tone
+-HDR10
+-625 nits (typ)
+-1200 nits (peak)</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.6, 26mm (широкая), 1.4µm, dual pixel PDAF, OIS
+-12 MP, f/2.4, 120˚, 13mm (сверхширокая), 1/3.6''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">двойная LED двутонная вспышка, HDR (photo/панорама)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/30/60fps, 1080p@30/60/120/240fps, HDR, Dolby Vision HDR (up to 30fps), stereo sound rec.
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/2.2, 23mm (широкоугольная), 1/3.6''
+-SL 3D, (датчик глубины/биометрический датчик)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/30/60fps, 1080p@30/60/120fps, gyro-EIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 14.1
+</t>
+  </si>
+  <si>
+    <t>Apple A14 Bionic (5 nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 ядерный (2x3.1 GHz Firestorm + 4x1.8 GHz Icestorm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598478
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3920
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одна SIM-карта (Nano-SIM and/or eSIM)Две SIM-карты (Nano-SIM, двойной режим готовности) - for China
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM / CDMA / HSPA / EVDO / LTE / 5G
+</t>
+  </si>
+  <si>
+    <t>iPhone 12 mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.5 Х 64.2 Х 7.4 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2227 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">780 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080 x 2340 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476 PPI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614169
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1570
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910
+</t>
+  </si>
+  <si>
+    <t>iPhone 12 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стеклянная передняя панель (Gorilla Glass), задняя стеклянная панель (Gorilla Glass), рама из нержавеющей стали
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver, Graphite, Gold, Pacific Blue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, Четверная камера
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.6, 26mm (широкая), 1.4µm, dual pixel PDAF, OIS
+-12 MP, f/2.0, 52mm (телеобъектив), 1/3.4'', 1.0µm, PDAF, OIS, 2x оптический зум
+-12 MP, f/2.4, 120˚, 13mm (сверхширокая), 1/3.6''
+-TOF 3D LiDAR scanner (для измерения глубины)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/30/60fps, 1080p@30/60/120/240fps, 10‑bit HDR, Dolby Vision HDR (up to 60fps), stereo sound rec.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128GB 6GB RAM, 256GB 6GB RAM, 512GB 6GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3930
+</t>
+  </si>
+  <si>
+    <t>iPhone 12 Pro Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.8 Х 78.1 Х 7.4 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3687 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.8 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.4%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1284 x 2778 px
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.6, 26mm (широкая), 1.7µm, dual pixel PDAF, sensor-shift stabilization (IBIS)
+-12 MP, f/2.2, 65mm (телеобъектив), 1/3.4", 1.0µm, PDAF, OIS, 2.5x оптический зум
+-12 MP, f/2.4, 120˚, 13mm (сверхширокая), 1/3.6"
+-TOF 3D LiDAR scanner (для измерения глубины)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">638841
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1586
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3940
+</t>
+  </si>
+  <si>
+    <t>iPhone SE (2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020, Апрель 15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стеклянная передняя панель, задняя стеклянная панель, алюминиевая рама
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black, White, Red
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1821 мАч, Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retina IPS LCD
+</t>
+  </si>
+  <si>
+    <t>Wide color gamut
+-True-tone
+-625 nits max brightness (advertised)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">четворная LED двутонная вспышка, HDR, панорама
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/30/60fps, 1080p@30/60/120/240fps, HDR, OIS, stereo sound rec.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR, панорама
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080p@30fps; gyro-EIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, f/1.8 (широкая), PDAF, OIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 13
+</t>
+  </si>
+  <si>
+    <t>Apple A13 Bionic (7 nm+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ядерный (2x2.65 GHz Lightning + 4x1.8 GHz Thunder)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64GB 3GB RAM, 128GB 3GB RAM, 256GB 3GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2653
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano-SIM and/or eSIM
+</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021, Сентябрь 14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.7 Х 71.5 Х 7.7 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starlight, Midnight, Blue, Pink, Red
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3240 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scratch-resistant ceramic glass, олеофобное покрытие
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wide color gamut
+-True-tone
+-HDR10
+-Dolby Vision
+-800 nits (HBM)
+-1200 nits (peak)</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.6, 26mm (широкая), 1.7µm, dual pixel PDAF, sensor-shift OIS
+-12 MP, f/2.4, 120˚, 13mm (сверхширокая)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/30/60fps, 1080p@30/60/120/240fps, HDR, Dolby Vision HDR (up to 60fps), stereo sound rec.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/25/30/60fps, 1080p@30/60/120fps, gyro-EIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 15
+</t>
+  </si>
+  <si>
+    <t>Apple A15 Bionic (5 nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 ядерный (2x3.22 GHz Avalanche + 4xX.X GHz Blizzard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128GB 4GB RAM, 256GB 4GB RAM, 512GB 4GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">826703
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4499
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одна SIM-карта (Nano-SIM and/or eSIM)Две SIM-карты (Nano-SIM, двойной режим готовности)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightning, USB 2.0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0, A2DP, LE
+</t>
+  </si>
+  <si>
+    <t>iPhone 13 mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.5 Х 64.2 Х 7.7 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2438 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t>Wide color gamut
+-True-tone
+-HDR10
+-Dolby Vision
+-800 nits (HBM)
+-1200 nits (peak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">806920
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1688
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4487
+</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphite, Gold, Silver, Sierra Blue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3095 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.5, 26mm (широкая), 1.9µm, dual pixel PDAF, sensor-shift OIS
+-12 MP, f/2.8, 77mm (телеобъектив), PDAF, OIS, 3x оптический зум
+-12 MP, f/1.8, 13mm, 120˚ (сверхширокая), PDAF
+-TOF 3D LiDAR scanner (для измерения глубины)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K@24/30/60fps, 1080p@30/60/120/240fps, 10‑bit HDR, Dolby Vision HDR (up to 60fps), ProRes, Cinematic mode, stereo sound rec.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128GB 6GB RAM, 256GB 6GB RAM, 512GB 6GB RAM, 1TB 6GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">837856
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4523
+</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.8 Х 78.1 Х 7.7 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4352 мАч, Li-Ion, Неизменяемый
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843813
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1716
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4533
+</t>
+  </si>
+  <si>
+    <t>https://ibb.co/ngLK7Nq</t>
+  </si>
+  <si>
+    <t>https://ibb.co/FhcHS7L</t>
+  </si>
+  <si>
+    <t>https://ibb.co/wSM4SV5</t>
+  </si>
+  <si>
+    <t>https://ibb.co/vHYdHHs</t>
+  </si>
+  <si>
+    <t>https://ibb.co/Np1Vy09</t>
+  </si>
+  <si>
+    <t>https://ibb.co/vPrnhZD</t>
+  </si>
+  <si>
+    <t>https://ibb.co/Y7rvw3Y</t>
+  </si>
+  <si>
+    <t>https://ibb.co/mBt9Grm</t>
+  </si>
+  <si>
+    <t>https://ibb.co/hZbq1YB</t>
+  </si>
+  <si>
+    <t>https://ibb.co/87s7h8y</t>
+  </si>
+  <si>
+    <t>https://ibb.co/xf6B9Bt</t>
+  </si>
+  <si>
+    <t>https://ibb.co/5h9Nz5K</t>
+  </si>
+  <si>
+    <t>https://ibb.co/VYy1xpp</t>
+  </si>
+  <si>
+    <t>https://ibb.co/596BpTJ</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +2027,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,6 +2069,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,84 +2410,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5893F7-A110-4A1A-8226-FF9054A6E999}">
-  <dimension ref="A1:AV12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="159.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="18.42578125" style="8" customWidth="1"/>
-    <col min="10" max="20" width="18.42578125" style="10" customWidth="1"/>
-    <col min="21" max="28" width="18.42578125" style="11" customWidth="1"/>
-    <col min="29" max="38" width="18.42578125" style="12" customWidth="1"/>
-    <col min="39" max="48" width="18.42578125" style="13" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="9" width="32.7109375" style="8"/>
+    <col min="10" max="20" width="32.7109375" style="10"/>
+    <col min="21" max="28" width="32.7109375" style="11"/>
+    <col min="29" max="38" width="32.7109375" style="12"/>
+    <col min="39" max="48" width="32.7109375" style="13"/>
+    <col min="49" max="16384" width="32.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="18" t="s">
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
-    <row r="2" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>170</v>
       </c>
@@ -1820,7 +2779,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>209</v>
       </c>
@@ -1966,7 +2925,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2112,7 +3071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -2258,7 +3217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -2404,7 +3363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
@@ -2550,7 +3509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -2696,209 +3655,209 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>465664</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>417248</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>1326</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM10" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV10" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>232308</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>267441</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>1838</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>179</v>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>215</v>
+      <c r="M11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>187</v>
+      <c r="P11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>159</v>
@@ -2906,29 +3865,29 @@
       <c r="U11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>234</v>
+      <c r="V11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>236</v>
+        <v>77</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>164</v>
@@ -2942,20 +3901,20 @@
       <c r="AG11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AH11" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI11" s="12">
-        <v>302943</v>
-      </c>
-      <c r="AJ11" s="12">
-        <v>232145</v>
-      </c>
-      <c r="AK11" s="12">
-        <v>917</v>
-      </c>
-      <c r="AL11" s="12">
-        <v>1993</v>
+      <c r="AH11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>232308</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>267441</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1838</v>
       </c>
       <c r="AM11" s="7" t="s">
         <v>87</v>
@@ -2985,39 +3944,39 @@
         <v>94</v>
       </c>
       <c r="AV11" s="7" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>179</v>
@@ -3026,37 +3985,37 @@
         <v>61</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>254</v>
+        <v>187</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>233</v>
@@ -3068,19 +4027,19 @@
         <v>120</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>235</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>260</v>
+        <v>236</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>166</v>
@@ -3092,16 +4051,16 @@
         <v>237</v>
       </c>
       <c r="AI12" s="12">
-        <v>302245</v>
+        <v>302943</v>
       </c>
       <c r="AJ12" s="12">
-        <v>245200</v>
+        <v>232145</v>
       </c>
       <c r="AK12" s="12">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="AL12" s="12">
-        <v>2099</v>
+        <v>1993</v>
       </c>
       <c r="AM12" s="7" t="s">
         <v>87</v>
@@ -3132,6 +4091,2196 @@
       </c>
       <c r="AV12" s="7" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>302245</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>245200</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>910</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>2099</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV13" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI14" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>1108</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>2575</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV14" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV15" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM16" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS16" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV16" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF17" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV17" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF18" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI18" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ18" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>3348</v>
+      </c>
+      <c r="AM18" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AN18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO18" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV18" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD19" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH19" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI19" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK19" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>3518</v>
+      </c>
+      <c r="AM19" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV19" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI20" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>546248</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>1580</v>
+      </c>
+      <c r="AL20" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM20" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN20" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV20" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH21" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI21" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>578617</v>
+      </c>
+      <c r="AK21" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL21" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM21" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN21" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV21" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC22" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH22" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>599059</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>542108</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>1583</v>
+      </c>
+      <c r="AL22" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM22" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN22" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV22" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC23" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD23" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE23" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH23" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI23" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>598136</v>
+      </c>
+      <c r="AK23" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="AL23" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM23" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN23" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV23" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC24" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH24" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI24" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>795645</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>1699</v>
+      </c>
+      <c r="AL24" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="AM24" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN24" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU24" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV24" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH25" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI25" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>765418</v>
+      </c>
+      <c r="AK25" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="AL25" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM25" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN25" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO25" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU25" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV25" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC26" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD26" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE26" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH26" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI26" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>801645</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>1705</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AM26" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN26" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU26" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV26" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD27" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE27" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF27" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH27" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI27" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>812365</v>
+      </c>
+      <c r="AK27" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL27" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="AM27" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN27" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS27" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU27" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV27" s="13" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -3144,28 +6293,35 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AB5" r:id="rId1" xr:uid="{8AD8BCFC-D94A-4560-9757-FF0308E1F2AB}"/>
-    <hyperlink ref="AB6" r:id="rId2" xr:uid="{9E0249F1-2853-4998-93A4-22DAA5130534}"/>
-    <hyperlink ref="AB7" r:id="rId3" xr:uid="{73649C82-6B88-45BE-AE85-EADAA63EA801}"/>
-    <hyperlink ref="AB8" r:id="rId4" xr:uid="{8C56195E-AF1E-41B4-B787-999E4647170F}"/>
-    <hyperlink ref="AB9" r:id="rId5" xr:uid="{55D4C63B-7A05-40AB-ADC7-0E89A07B1A2C}"/>
-    <hyperlink ref="AB10" r:id="rId6" xr:uid="{5877F404-FDB1-47EF-812B-DF7D96340BCE}"/>
-    <hyperlink ref="AB3" r:id="rId7" xr:uid="{340E6EF3-5A1D-47F0-ACD6-754E47345C3E}"/>
-    <hyperlink ref="AB4" r:id="rId8" xr:uid="{79068044-0097-44A7-BC04-49BB26310AAF}"/>
-    <hyperlink ref="AB11" r:id="rId9" xr:uid="{93B7C521-F491-43EA-9447-9A25EADB6969}"/>
-    <hyperlink ref="AB12" r:id="rId10" xr:uid="{A21AB0E1-A888-4AAB-8272-A8C377AEF2FD}"/>
-    <hyperlink ref="B3" r:id="rId11" xr:uid="{6D329FC1-865E-47C5-B2AB-ABFE3B1D2184}"/>
-    <hyperlink ref="B4" r:id="rId12" xr:uid="{4CF71457-F034-4022-806F-18813D14F033}"/>
-    <hyperlink ref="B5" r:id="rId13" xr:uid="{DFA0DC4A-F728-409E-8AB1-DCC98FB11663}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{C61EB18A-DEF4-4F43-8271-18D2EA1E03F3}"/>
-    <hyperlink ref="B7" r:id="rId15" xr:uid="{26E87593-7217-4DAD-91B2-0FE976A19E5A}"/>
-    <hyperlink ref="B8" r:id="rId16" xr:uid="{434337C3-E7C0-4358-81B9-22D5E3A91447}"/>
-    <hyperlink ref="B9" r:id="rId17" xr:uid="{500C6307-D06A-4EE6-A550-FE04C5F929BB}"/>
-    <hyperlink ref="B10" r:id="rId18" xr:uid="{2A3E9417-3F61-4E6B-B52F-865ECF8AE260}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{0628ADB9-BBC1-46A9-A9D5-7151FEDD822D}"/>
-    <hyperlink ref="B12" r:id="rId20" xr:uid="{4C1C0054-83CE-4C32-A6AE-0E278FA0E409}"/>
+    <hyperlink ref="AB5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AB7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AB9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AB12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AB14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AB15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AB16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AB10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId25" xr:uid="{30A598E1-FB62-45A0-9222-C81A8F1736BB}"/>
+    <hyperlink ref="B18" r:id="rId26" xr:uid="{C04BA347-DC5F-4785-9BF4-8EC840999D03}"/>
+    <hyperlink ref="B19" r:id="rId27" xr:uid="{DA7B3D03-3A2F-417E-9337-85FE8D771FEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/excel/iPhone.xlsx
+++ b/excel/iPhone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\159\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6EE5D-3B99-4910-84B8-3CDD96A2EC6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31121B38-9ACD-4E1E-98D8-301D792C4135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="515">
   <si>
     <t>Общие Характеристики</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Bluetooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone 6S </t>
   </si>
   <si>
     <t xml:space="preserve">2015, Сентябрь
@@ -1899,6 +1896,12 @@
   </si>
   <si>
     <t>https://ibb.co/596BpTJ</t>
+  </si>
+  <si>
+    <t>iPhone 6S</t>
+  </si>
+  <si>
+    <t>Graphite, Gold, Silver, Sierra Blue</t>
   </si>
 </sst>
 </file>
@@ -2027,73 +2030,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2413,193 +2431,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="159.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="32.7109375" style="8"/>
-    <col min="10" max="20" width="32.7109375" style="10"/>
-    <col min="21" max="28" width="32.7109375" style="11"/>
-    <col min="29" max="38" width="32.7109375" style="12"/>
-    <col min="39" max="48" width="32.7109375" style="13"/>
-    <col min="49" max="16384" width="32.7109375" style="9"/>
+    <col min="1" max="9" width="32.7109375" style="1"/>
+    <col min="10" max="20" width="32.7109375" style="3"/>
+    <col min="21" max="28" width="32.7109375" style="4"/>
+    <col min="29" max="38" width="32.7109375" style="5"/>
+    <col min="39" max="48" width="32.7109375" style="6"/>
+    <col min="49" max="16384" width="32.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="20" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="21" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="22" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
     </row>
     <row r="2" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="17" t="s">
         <v>40</v>
       </c>
       <c r="AM2" s="7" t="s">
@@ -2634,3653 +2652,3653 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="AG3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="17">
+        <v>165746</v>
+      </c>
+      <c r="AJ3" s="17">
+        <v>127678</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>305</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>563</v>
+      </c>
+      <c r="AM3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AI3" s="4">
-        <v>165746</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>127678</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>305</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>563</v>
-      </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AP3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AS3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AU3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="18">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="O4" s="3">
-        <v>0.67291666666666661</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH4" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="AD4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="17">
         <v>201354</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="17">
         <v>171835</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="17">
         <v>311</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="17">
         <v>570</v>
       </c>
       <c r="AM4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AP4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AS4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AT4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AU4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AV4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="AV4" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AC5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AD5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AE5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AK5" s="17">
+        <v>531</v>
+      </c>
+      <c r="AL5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="AK5" s="4">
-        <v>531</v>
-      </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AN5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AO5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO5" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AP5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR5" s="7" t="s">
+      <c r="AS5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS5" s="7" t="s">
+      <c r="AT5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AT5" s="7" t="s">
+      <c r="AU5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AV5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AV5" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI6" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AJ6" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AK6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="AL6" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="AM6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AO6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AP6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR6" s="7" t="s">
+      <c r="AS6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS6" s="7" t="s">
+      <c r="AT6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AU6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AV6" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Z7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AA7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AD7" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AE7" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AF7" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AG7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="AG7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AI7" s="17">
+        <v>178965</v>
+      </c>
+      <c r="AJ7" s="17">
+        <v>218894</v>
+      </c>
+      <c r="AK7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AI7" s="4">
-        <v>178965</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>218894</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="17">
         <v>1289</v>
       </c>
       <c r="AM7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AO7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO7" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AP7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR7" s="7" t="s">
+      <c r="AS7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS7" s="7" t="s">
+      <c r="AT7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AT7" s="7" t="s">
+      <c r="AU7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU7" s="7" t="s">
+      <c r="AV7" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" s="5" t="s">
+      <c r="W8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH8" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="W8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AI8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AJ8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AJ8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="17">
         <v>725</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="17">
         <v>1295</v>
       </c>
       <c r="AM8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AO8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO8" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AP8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR8" s="7" t="s">
+      <c r="AS8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AT8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AT8" s="7" t="s">
+      <c r="AU8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU8" s="7" t="s">
+      <c r="AV8" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Z9" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AA9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB9" s="6" t="s">
+      <c r="AC9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="AC9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE9" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AF9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AG9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AH9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AH9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="17">
         <v>131789</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="17">
         <v>177368</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="17">
         <v>541</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="17">
         <v>995</v>
       </c>
       <c r="AM9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AN9" s="7" t="s">
+      <c r="AO9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO9" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AP9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR9" s="7" t="s">
+      <c r="AS9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS9" s="7" t="s">
+      <c r="AT9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AT9" s="7" t="s">
+      <c r="AU9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU9" s="7" t="s">
+      <c r="AV9" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AV9" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="10" t="s">
+      <c r="U10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="11" t="s">
+      <c r="X10" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AD10" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AE10" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AF10" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH10" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="AF10" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="12" t="s">
+      <c r="AI10" s="5">
+        <v>465664</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>417248</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>1326</v>
+      </c>
+      <c r="AL10" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AI10" s="12">
-        <v>465664</v>
-      </c>
-      <c r="AJ10" s="12">
-        <v>417248</v>
-      </c>
-      <c r="AK10" s="12">
-        <v>1326</v>
-      </c>
-      <c r="AL10" s="12" t="s">
+      <c r="AM10" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="AM10" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="AN10" s="13" t="s">
+      <c r="AN10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP10" s="17" t="s">
+      <c r="AP10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR10" s="17" t="s">
+      <c r="AS10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS10" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU10" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV10" s="17" t="s">
-        <v>261</v>
+      <c r="AT10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V11" s="5" t="s">
+      <c r="W11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="W11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Z11" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="AA11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AD11" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AE11" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AF11" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AG11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="AG11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AI11" s="17">
+        <v>232308</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>267441</v>
+      </c>
+      <c r="AK11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="AI11" s="4">
-        <v>232308</v>
-      </c>
-      <c r="AJ11" s="4">
-        <v>267441</v>
-      </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AL11" s="17">
+        <v>1838</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="AL11" s="4">
-        <v>1838</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="AO11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AS11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS11" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="AT11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AU11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV11" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="10" t="s">
+      <c r="Q12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" s="11" t="s">
+      <c r="W12" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="Y12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="Y12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AB12" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="AB12" s="6" t="s">
+      <c r="AC12" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AD12" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH12" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="AD12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH12" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="5">
         <v>302943</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AJ12" s="5">
         <v>232145</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AK12" s="5">
         <v>917</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12" s="5">
         <v>1993</v>
       </c>
       <c r="AM12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR12" s="7" t="s">
+      <c r="AS12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS12" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="AT12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV12" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="Q13" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="R13" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="S13" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="U13" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="W13" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA13" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AB13" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC13" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AB13" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AD13" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="AD13" s="12" t="s">
+      <c r="AE13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AE13" s="12" t="s">
+      <c r="AF13" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>302245</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>245200</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>910</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>2099</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI13" s="12">
-        <v>302245</v>
-      </c>
-      <c r="AJ13" s="12">
-        <v>245200</v>
-      </c>
-      <c r="AK13" s="12">
-        <v>910</v>
-      </c>
-      <c r="AL13" s="12">
-        <v>2099</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV13" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="N14" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="O14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="Q14" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="R14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="R14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="U14" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="W14" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="Y14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB14" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB14" s="6" t="s">
+      <c r="AC14" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AD14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE14" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AD14" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AF14" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AG14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI14" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AG14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH14" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI14" s="12" t="s">
+      <c r="AJ14" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AJ14" s="12" t="s">
+      <c r="AK14" s="5">
+        <v>1108</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>2575</v>
+      </c>
+      <c r="AM14" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="AK14" s="12">
-        <v>1108</v>
-      </c>
-      <c r="AL14" s="12">
-        <v>2575</v>
-      </c>
-      <c r="AM14" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN14" s="13" t="s">
+      <c r="AN14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP14" s="17" t="s">
+      <c r="AP14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR14" s="17" t="s">
+      <c r="AS14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV14" s="17" t="s">
-        <v>261</v>
+      <c r="AT14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV14" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="V15" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="X15" s="11" t="s">
+      <c r="AB15" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AC15" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD15" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD15" s="12" t="s">
+      <c r="AE15" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AE15" s="12" t="s">
+      <c r="AF15" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH15" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AF15" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH15" s="12" t="s">
+      <c r="AI15" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AI15" s="12" t="s">
+      <c r="AJ15" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AJ15" s="12" t="s">
+      <c r="AK15" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AK15" s="12" t="s">
+      <c r="AL15" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AL15" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM15" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN15" s="13" t="s">
+      <c r="AM15" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP15" s="17" t="s">
+      <c r="AP15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR15" s="17" t="s">
+      <c r="AS15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS15" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV15" s="17" t="s">
-        <v>261</v>
+      <c r="AT15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV15" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="O16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P16" s="10" t="s">
+      <c r="Q16" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="R16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI16" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="R16" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD16" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE16" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH16" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI16" s="12" t="s">
+      <c r="AJ16" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="AJ16" s="12" t="s">
+      <c r="AK16" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="AK16" s="12" t="s">
+      <c r="AL16" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="AL16" s="12" t="s">
+      <c r="AM16" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="AM16" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="AN16" s="13" t="s">
+      <c r="AN16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP16" s="17" t="s">
+      <c r="AP16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR16" s="17" t="s">
+      <c r="AS16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV16" s="17" t="s">
-        <v>261</v>
+      <c r="AT16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV16" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T17" s="10" t="s">
+      <c r="U17" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="W17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA17" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AB17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="AA17" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AC17" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AD17" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="AD17" s="12" t="s">
+      <c r="AE17" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AE17" s="12" t="s">
+      <c r="AF17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH17" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="AF17" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH17" s="12" t="s">
+      <c r="AI17" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AI17" s="12" t="s">
+      <c r="AJ17" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="AJ17" s="12" t="s">
+      <c r="AK17" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="AK17" s="12" t="s">
+      <c r="AL17" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="AL17" s="12" t="s">
+      <c r="AM17" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AM17" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="AN17" s="13" t="s">
+      <c r="AN17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO17" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP17" s="17" t="s">
+      <c r="AP17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ17" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR17" s="17" t="s">
+      <c r="AS17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS17" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT17" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU17" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV17" s="17" t="s">
-        <v>261</v>
+      <c r="AT17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV17" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" s="10" t="s">
+      <c r="Q18" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="U18" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y18" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V18" s="11" t="s">
+      <c r="Z18" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI18" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="W18" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD18" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE18" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF18" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH18" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI18" s="12" t="s">
+      <c r="AJ18" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AJ18" s="12" t="s">
+      <c r="AK18" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AK18" s="12" t="s">
+      <c r="AL18" s="5">
+        <v>3348</v>
+      </c>
+      <c r="AM18" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="AL18" s="12">
-        <v>3348</v>
-      </c>
-      <c r="AM18" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="AN18" s="13" t="s">
+      <c r="AN18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP18" s="17" t="s">
+      <c r="AP18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR18" s="17" t="s">
+      <c r="AS18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT18" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV18" s="17" t="s">
-        <v>261</v>
+      <c r="AT18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV18" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="K19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="N19" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="10" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI19" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE19" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF19" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH19" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI19" s="12" t="s">
+      <c r="AJ19" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AJ19" s="12" t="s">
+      <c r="AK19" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="AK19" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL19" s="12">
+      <c r="AL19" s="5">
         <v>3518</v>
       </c>
-      <c r="AM19" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="AN19" s="13" t="s">
+      <c r="AM19" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AO19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP19" s="17" t="s">
+      <c r="AP19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR19" s="17" t="s">
+      <c r="AS19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV19" s="17" t="s">
-        <v>261</v>
+      <c r="AT19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV19" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="N20" s="10" t="s">
+      <c r="O20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="R20" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="S20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T20" s="10" t="s">
+      <c r="U20" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="V20" s="11" t="s">
+      <c r="W20" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="Y20" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z20" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="Y20" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB20" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AA20" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AC20" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AD20" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="AD20" s="12" t="s">
+      <c r="AE20" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="AE20" s="12" t="s">
+      <c r="AF20" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI20" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="AF20" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH20" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI20" s="12" t="s">
+      <c r="AJ20" s="5">
+        <v>546248</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>1580</v>
+      </c>
+      <c r="AL20" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="AJ20" s="12">
-        <v>546248</v>
-      </c>
-      <c r="AK20" s="12">
-        <v>1580</v>
-      </c>
-      <c r="AL20" s="12" t="s">
+      <c r="AM20" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="AM20" s="13" t="s">
+      <c r="AN20" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AN20" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO20" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP20" s="17" t="s">
+      <c r="AO20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR20" s="17" t="s">
+      <c r="AS20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS20" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV20" s="17" t="s">
-        <v>261</v>
+      <c r="AT20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV20" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P21" s="10" t="s">
+      <c r="Q21" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="R21" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI21" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC21" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD21" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE21" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF21" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH21" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI21" s="12" t="s">
+      <c r="AJ21" s="5">
+        <v>578617</v>
+      </c>
+      <c r="AK21" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="AJ21" s="12">
-        <v>578617</v>
-      </c>
-      <c r="AK21" s="12" t="s">
+      <c r="AL21" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="AL21" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="AM21" s="13" t="s">
+      <c r="AM21" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN21" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AN21" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP21" s="17" t="s">
+      <c r="AO21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR21" s="17" t="s">
+      <c r="AS21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU21" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV21" s="17" t="s">
-        <v>261</v>
+      <c r="AT21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="U22" s="11" t="s">
+      <c r="V22" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="W22" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X22" s="11" t="s">
+      <c r="Y22" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH22" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA22" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC22" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD22" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE22" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF22" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH22" s="12" t="s">
+      <c r="AI22" s="5">
+        <v>599059</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>542108</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>1583</v>
+      </c>
+      <c r="AL22" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="AI22" s="12">
-        <v>599059</v>
-      </c>
-      <c r="AJ22" s="12">
-        <v>542108</v>
-      </c>
-      <c r="AK22" s="12">
-        <v>1583</v>
-      </c>
-      <c r="AL22" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="AM22" s="13" t="s">
+      <c r="AM22" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN22" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP22" s="17" t="s">
+      <c r="AO22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR22" s="17" t="s">
+      <c r="AS22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU22" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV22" s="17" t="s">
-        <v>261</v>
+      <c r="AT22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV22" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="10" t="s">
+      <c r="N23" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="O23" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P23" s="10" t="s">
+      <c r="Q23" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="R23" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="V23" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="W23" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y23" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V23" s="11" t="s">
+      <c r="Z23" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD23" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE23" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF23" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH23" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="AI23" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC23" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD23" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE23" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF23" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH23" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="AI23" s="12" t="s">
+      <c r="AJ23" s="5">
+        <v>598136</v>
+      </c>
+      <c r="AK23" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="AJ23" s="12">
-        <v>598136</v>
-      </c>
-      <c r="AK23" s="12" t="s">
+      <c r="AL23" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="AL23" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="AM23" s="13" t="s">
+      <c r="AM23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN23" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AN23" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP23" s="17" t="s">
+      <c r="AO23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AQ23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR23" s="17" t="s">
+      <c r="AS23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AS23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU23" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV23" s="17" t="s">
-        <v>261</v>
+      <c r="AT23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV23" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="S24" s="10" t="s">
+      <c r="T24" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="U24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="V24" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="W24" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA24" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="V24" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X24" s="11" t="s">
+      <c r="AB24" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="Y24" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AC24" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="AC24" s="12" t="s">
+      <c r="AD24" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="AD24" s="12" t="s">
+      <c r="AE24" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AE24" s="12" t="s">
+      <c r="AF24" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH24" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="AF24" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH24" s="12" t="s">
+      <c r="AI24" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="AI24" s="12" t="s">
+      <c r="AJ24" s="5">
+        <v>795645</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>1699</v>
+      </c>
+      <c r="AL24" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="AJ24" s="12">
-        <v>795645</v>
-      </c>
-      <c r="AK24" s="12">
-        <v>1699</v>
-      </c>
-      <c r="AL24" s="12" t="s">
+      <c r="AM24" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AM24" s="13" t="s">
+      <c r="AN24" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU24" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AN24" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO24" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU24" s="13" t="s">
+      <c r="AV24" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="AV24" s="13" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="T25" s="10" t="s">
+      <c r="U25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE25" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF25" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH25" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI25" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="U25" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC25" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AE25" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AF25" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH25" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI25" s="12" t="s">
+      <c r="AJ25" s="5">
+        <v>765418</v>
+      </c>
+      <c r="AK25" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="AJ25" s="12">
-        <v>765418</v>
-      </c>
-      <c r="AK25" s="12" t="s">
+      <c r="AL25" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="AL25" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM25" s="13" t="s">
+      <c r="AM25" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU25" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AN25" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS25" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU25" s="13" t="s">
+      <c r="AV25" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="AV25" s="13" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="F26" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE26" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH26" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>801645</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>1705</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU26" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV26" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" s="27" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="C27" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="V27" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V26" s="11" t="s">
+      <c r="W27" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="X27" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X26" s="11" t="s">
+      <c r="Y27" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC27" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD27" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE27" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF27" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG27" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH27" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC26" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AD26" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AE26" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AF26" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH26" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="AI26" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="AJ26" s="12">
-        <v>801645</v>
-      </c>
-      <c r="AK26" s="12">
-        <v>1705</v>
-      </c>
-      <c r="AL26" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="AM26" s="13" t="s">
+      <c r="AI27" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ27" s="24">
+        <v>812365</v>
+      </c>
+      <c r="AK27" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="AL27" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM27" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="AN27" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU27" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="AN26" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO26" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU26" s="13" t="s">
+      <c r="AV27" s="25" t="s">
         <v>474</v>
-      </c>
-      <c r="AV26" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC27" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AD27" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AE27" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="AF27" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH27" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="AI27" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="AJ27" s="12">
-        <v>812365</v>
-      </c>
-      <c r="AK27" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL27" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM27" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="AN27" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="AO27" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR27" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU27" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="AV27" s="13" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -6320,8 +6338,9 @@
     <hyperlink ref="B10" r:id="rId25" xr:uid="{30A598E1-FB62-45A0-9222-C81A8F1736BB}"/>
     <hyperlink ref="B18" r:id="rId26" xr:uid="{C04BA347-DC5F-4785-9BF4-8EC840999D03}"/>
     <hyperlink ref="B19" r:id="rId27" xr:uid="{DA7B3D03-3A2F-417E-9337-85FE8D771FEC}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{C8D3DDAC-68BE-4659-82BA-04BEA2C5F756}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/excel/iPhone.xlsx
+++ b/excel/iPhone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\159\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31121B38-9ACD-4E1E-98D8-301D792C4135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4539F-7FB7-4F94-88DB-257B9B37B2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2068,21 +2068,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2112,6 +2097,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2429,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV27"/>
+  <dimension ref="A1:AV28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="B28" activeCellId="1" sqref="B27 B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="159.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2446,178 +2446,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="11" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="12" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AG2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AH2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AM2" s="7" t="s">
@@ -2652,118 +2652,118 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AE3" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AF3" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AH3" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AI3" s="12">
         <v>165746</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AJ3" s="12">
         <v>127678</v>
       </c>
-      <c r="AK3" s="17">
+      <c r="AK3" s="12">
         <v>305</v>
       </c>
-      <c r="AL3" s="17">
+      <c r="AL3" s="12">
         <v>563</v>
       </c>
       <c r="AM3" s="7" t="s">
@@ -2798,118 +2798,118 @@
       </c>
     </row>
     <row r="4" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="13">
         <v>0.67291666666666661</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AC4" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AD4" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="AE4" s="17" t="s">
+      <c r="AE4" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AF4" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="AG4" s="17" t="s">
+      <c r="AG4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AH4" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AI4" s="12">
         <v>201354</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AJ4" s="12">
         <v>171835</v>
       </c>
-      <c r="AK4" s="17">
+      <c r="AK4" s="12">
         <v>311</v>
       </c>
-      <c r="AL4" s="17">
+      <c r="AL4" s="12">
         <v>570</v>
       </c>
       <c r="AM4" s="7" t="s">
@@ -2944,118 +2944,118 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>513</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="19" t="s">
+      <c r="AB5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="17" t="s">
+      <c r="AC5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="17" t="s">
+      <c r="AD5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AE5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="17" t="s">
+      <c r="AF5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="17" t="s">
+      <c r="AG5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH5" s="17" t="s">
+      <c r="AH5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AI5" s="17" t="s">
+      <c r="AI5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AJ5" s="17" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AK5" s="17">
+      <c r="AK5" s="12">
         <v>531</v>
       </c>
-      <c r="AL5" s="17" t="s">
+      <c r="AL5" s="12" t="s">
         <v>85</v>
       </c>
       <c r="AM5" s="7" t="s">
@@ -3090,118 +3090,118 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AC6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AF6" s="17" t="s">
+      <c r="AF6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" s="17" t="s">
+      <c r="AG6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH6" s="17" t="s">
+      <c r="AH6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AI6" s="17" t="s">
+      <c r="AI6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AJ6" s="17" t="s">
+      <c r="AJ6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AK6" s="17" t="s">
+      <c r="AK6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AL6" s="17" t="s">
+      <c r="AL6" s="12" t="s">
         <v>108</v>
       </c>
       <c r="AM6" s="7" t="s">
@@ -3236,118 +3236,118 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="V7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AA7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AB7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="17" t="s">
+      <c r="AC7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AD7" s="17" t="s">
+      <c r="AD7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AE7" s="17" t="s">
+      <c r="AE7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AF7" s="17" t="s">
+      <c r="AF7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AG7" s="17" t="s">
+      <c r="AG7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AH7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AI7" s="17">
+      <c r="AI7" s="12">
         <v>178965</v>
       </c>
-      <c r="AJ7" s="17">
+      <c r="AJ7" s="12">
         <v>218894</v>
       </c>
-      <c r="AK7" s="17" t="s">
+      <c r="AK7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AL7" s="12">
         <v>1289</v>
       </c>
       <c r="AM7" s="7" t="s">
@@ -3382,118 +3382,118 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="V8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="Z8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AA8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AB8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC8" s="17" t="s">
+      <c r="AC8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AD8" s="17" t="s">
+      <c r="AD8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AE8" s="17" t="s">
+      <c r="AE8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AF8" s="17" t="s">
+      <c r="AF8" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AG8" s="17" t="s">
+      <c r="AG8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH8" s="17" t="s">
+      <c r="AH8" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AI8" s="17" t="s">
+      <c r="AI8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AJ8" s="17" t="s">
+      <c r="AJ8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AK8" s="12">
         <v>725</v>
       </c>
-      <c r="AL8" s="17">
+      <c r="AL8" s="12">
         <v>1295</v>
       </c>
       <c r="AM8" s="7" t="s">
@@ -3528,118 +3528,118 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="16" t="s">
+      <c r="V9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="16" t="s">
+      <c r="Y9" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AB9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AC9" s="17" t="s">
+      <c r="AC9" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AD9" s="17" t="s">
+      <c r="AD9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="17" t="s">
+      <c r="AE9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="17" t="s">
+      <c r="AF9" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AG9" s="17" t="s">
+      <c r="AG9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH9" s="17" t="s">
+      <c r="AH9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AI9" s="17">
+      <c r="AI9" s="12">
         <v>131789</v>
       </c>
-      <c r="AJ9" s="17">
+      <c r="AJ9" s="12">
         <v>177368</v>
       </c>
-      <c r="AK9" s="17">
+      <c r="AK9" s="12">
         <v>541</v>
       </c>
-      <c r="AL9" s="17">
+      <c r="AL9" s="12">
         <v>995</v>
       </c>
       <c r="AM9" s="7" t="s">
@@ -3755,7 +3755,7 @@
       <c r="AA10" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" s="19" t="s">
+      <c r="AB10" s="14" t="s">
         <v>446</v>
       </c>
       <c r="AC10" s="5" t="s">
@@ -3820,118 +3820,118 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="V11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="Y11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AB11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="17" t="s">
+      <c r="AC11" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AD11" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AE11" s="17" t="s">
+      <c r="AE11" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AF11" s="17" t="s">
+      <c r="AF11" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AG11" s="17" t="s">
+      <c r="AG11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AH11" s="17" t="s">
+      <c r="AH11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AI11" s="17">
+      <c r="AI11" s="12">
         <v>232308</v>
       </c>
-      <c r="AJ11" s="17">
+      <c r="AJ11" s="12">
         <v>267441</v>
       </c>
-      <c r="AK11" s="17" t="s">
+      <c r="AK11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="12">
         <v>1838</v>
       </c>
       <c r="AM11" s="7" t="s">
@@ -3972,7 +3972,7 @@
       <c r="B12" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3999,7 +3999,7 @@
       <c r="K12" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -4008,7 +4008,7 @@
       <c r="N12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="10" t="s">
         <v>63</v>
       </c>
       <c r="P12" s="3" t="s">
@@ -4023,10 +4023,10 @@
       <c r="S12" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="11" t="s">
         <v>69</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4047,22 +4047,22 @@
       <c r="AA12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AB12" s="14" t="s">
         <v>234</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="AD12" s="17" t="s">
+      <c r="AD12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AE12" s="17" t="s">
+      <c r="AE12" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AF12" s="17" t="s">
+      <c r="AF12" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AG12" s="17" t="s">
+      <c r="AG12" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH12" s="5" t="s">
@@ -4118,7 +4118,7 @@
       <c r="B13" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -4145,7 +4145,7 @@
       <c r="K13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -4154,7 +4154,7 @@
       <c r="N13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="10" t="s">
         <v>247</v>
       </c>
       <c r="P13" s="3" t="s">
@@ -4193,7 +4193,7 @@
       <c r="AA13" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="AB13" s="19" t="s">
+      <c r="AB13" s="14" t="s">
         <v>234</v>
       </c>
       <c r="AC13" s="5" t="s">
@@ -4205,10 +4205,10 @@
       <c r="AE13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AF13" s="17" t="s">
+      <c r="AF13" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AG13" s="17" t="s">
+      <c r="AG13" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH13" s="5" t="s">
@@ -4291,7 +4291,7 @@
       <c r="K14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -4339,7 +4339,7 @@
       <c r="AA14" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="AB14" s="19" t="s">
+      <c r="AB14" s="14" t="s">
         <v>290</v>
       </c>
       <c r="AC14" s="5" t="s">
@@ -4354,7 +4354,7 @@
       <c r="AF14" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AG14" s="17" t="s">
+      <c r="AG14" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH14" s="5" t="s">
@@ -4437,7 +4437,7 @@
       <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -4485,7 +4485,7 @@
       <c r="AA15" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AB15" s="14" t="s">
         <v>290</v>
       </c>
       <c r="AC15" s="5" t="s">
@@ -4500,7 +4500,7 @@
       <c r="AF15" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AG15" s="17" t="s">
+      <c r="AG15" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH15" s="5" t="s">
@@ -4583,7 +4583,7 @@
       <c r="K16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -4631,7 +4631,7 @@
       <c r="AA16" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AB16" s="14" t="s">
         <v>290</v>
       </c>
       <c r="AC16" s="5" t="s">
@@ -4646,7 +4646,7 @@
       <c r="AF16" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AG16" s="17" t="s">
+      <c r="AG16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="AH16" s="5" t="s">
@@ -4729,7 +4729,7 @@
       <c r="K17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -4875,7 +4875,7 @@
       <c r="K18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -5021,7 +5021,7 @@
       <c r="K19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -5167,7 +5167,7 @@
       <c r="K20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -5313,7 +5313,7 @@
       <c r="K21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -5459,7 +5459,7 @@
       <c r="K22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -6155,151 +6155,201 @@
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="27" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:48" s="22" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="Q27" s="22" t="s">
+      <c r="Q27" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="R27" s="22" t="s">
+      <c r="R27" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="S27" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="T27" s="22" t="s">
+      <c r="T27" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="U27" s="23" t="s">
+      <c r="U27" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="V27" s="23" t="s">
+      <c r="V27" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="W27" s="23" t="s">
+      <c r="W27" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="X27" s="23" t="s">
+      <c r="X27" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="Y27" s="23" t="s">
+      <c r="Y27" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="Z27" s="23" t="s">
+      <c r="Z27" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="AA27" s="23" t="s">
+      <c r="AA27" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="AB27" s="23" t="s">
+      <c r="AB27" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="AC27" s="24" t="s">
+      <c r="AC27" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="AD27" s="24" t="s">
+      <c r="AD27" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="AE27" s="24" t="s">
+      <c r="AE27" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="AF27" s="24" t="s">
+      <c r="AF27" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="AG27" s="24" t="s">
+      <c r="AG27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AH27" s="24" t="s">
+      <c r="AH27" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="AI27" s="24" t="s">
+      <c r="AI27" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="AJ27" s="24">
+      <c r="AJ27" s="19">
         <v>812365</v>
       </c>
-      <c r="AK27" s="24" t="s">
+      <c r="AK27" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="AL27" s="24" t="s">
+      <c r="AL27" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="AM27" s="25" t="s">
+      <c r="AM27" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="AN27" s="25" t="s">
+      <c r="AN27" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="AO27" s="26" t="s">
+      <c r="AO27" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AP27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR27" s="26" t="s">
+      <c r="AP27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AS27" s="26" t="s">
+      <c r="AS27" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AT27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU27" s="25" t="s">
+      <c r="AT27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU27" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="AV27" s="25" t="s">
+      <c r="AV27" s="20" t="s">
         <v>474</v>
       </c>
+    </row>
+    <row r="28" spans="1:48" s="22" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6338,7 +6388,7 @@
     <hyperlink ref="B10" r:id="rId25" xr:uid="{30A598E1-FB62-45A0-9222-C81A8F1736BB}"/>
     <hyperlink ref="B18" r:id="rId26" xr:uid="{C04BA347-DC5F-4785-9BF4-8EC840999D03}"/>
     <hyperlink ref="B19" r:id="rId27" xr:uid="{DA7B3D03-3A2F-417E-9337-85FE8D771FEC}"/>
-    <hyperlink ref="B27" r:id="rId28" xr:uid="{C8D3DDAC-68BE-4659-82BA-04BEA2C5F756}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{1841C8F1-9DCB-480F-973C-40B44F5175EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
